--- a/testdata/data tst.xlsx
+++ b/testdata/data tst.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="202">
   <si>
     <t>username</t>
   </si>
@@ -641,330 +641,6 @@
   </si>
   <si>
     <t>SI56 0205 3025 7703 191</t>
-  </si>
-  <si>
-    <t>Luka SAJEVIC</t>
-  </si>
-  <si>
-    <t>SAJEVIC LUKA</t>
-  </si>
-  <si>
-    <t>ŠMARTINKA 132B
-DOMŽALE
-SLOVENIA</t>
-  </si>
-  <si>
-    <t>ŠMARTINKA 132B  DOMŽALE  SLOVENIA</t>
-  </si>
-  <si>
-    <t>SAJEVIC LUKA  ŠMARTINKA 132B  DOMŽALE  SLOVENIA</t>
-  </si>
-  <si>
-    <t>Paket Premium</t>
-  </si>
-  <si>
-    <t>NLB Prvi racun</t>
-  </si>
-  <si>
-    <t>SI56 0230 5402 0800 314</t>
-  </si>
-  <si>
-    <t>SI56 0201 0280 2160 410</t>
-  </si>
-  <si>
-    <t>ŠMARTINKA 132 B,DOMŽALE,SLOVENIA</t>
-  </si>
-  <si>
-    <t>SAJEVIC LUKA  ŠMARTINKA 132 B  DOMŽALE  SLOVENIA</t>
-  </si>
-  <si>
-    <t>ŠMARTINKA 132 B  DOMŽALE  SLOVENIA</t>
-  </si>
-  <si>
-    <t>NLB Varcevalni racun</t>
-  </si>
-  <si>
-    <t>SI56 0201 0280 2158 955</t>
-  </si>
-  <si>
-    <t>VEROVŠKOVA ULICA 70
-LJUBLJANA
-SLOVENIA</t>
-  </si>
-  <si>
-    <t>TESTNAME</t>
-  </si>
-  <si>
-    <t>TESTNAME2</t>
-  </si>
-  <si>
-    <t>SI56 0201 0275 3253 980</t>
-  </si>
-  <si>
-    <t>TEST,TEST,SLOVENIA</t>
-  </si>
-  <si>
-    <t>TEST2,TEST2,SLOVENIA</t>
-  </si>
-  <si>
-    <t>TESTNAME  TEST  TEST  SLOVENIA</t>
-  </si>
-  <si>
-    <t>TESTNAME2  TEST2  TEST2  SLOVENIA</t>
-  </si>
-  <si>
-    <t>Damjan BAUMAN</t>
-  </si>
-  <si>
-    <t>BAUMAN DAMJAN</t>
-  </si>
-  <si>
-    <t>PREGLOV TRG 7,LJUBLJANA,SLOVENIA</t>
-  </si>
-  <si>
-    <t>PREGLOV TRG 7  LJUBLJANA  SLOVENIA</t>
-  </si>
-  <si>
-    <t>BAUMAN DAMJAN  PREGLOV TRG 7  LJUBLJANA  SLOVENIA</t>
-  </si>
-  <si>
-    <t>Nina paket 12345</t>
-  </si>
-  <si>
-    <t>SI56 0201 0280 2149 934</t>
-  </si>
-  <si>
-    <t>Paket Mladostni ALEKSANDRA SVILAR TEST KREDIT</t>
-  </si>
-  <si>
-    <t>SI56 0203 3371 0566 805</t>
-  </si>
-  <si>
-    <t>SVILAR TEST KREDIT ALEKSANDRA  SPODNJE PIRNIČE TEST 21C  MEDVODE  SLOVENIA</t>
-  </si>
-  <si>
-    <t>SVILAR TEST KREDIT ALEKSANDRA</t>
-  </si>
-  <si>
-    <t>SPODNJE PIRNIČE TEST 21C,MEDVODE,SLOVENIA</t>
-  </si>
-  <si>
-    <t>SPODNJE PIRNIČE TEST 21C  MEDVODE  SLOVENIA</t>
-  </si>
-  <si>
-    <t>SI56 0201 0279 7456 589</t>
-  </si>
-  <si>
-    <t>DAMJAN BAUMAN</t>
-  </si>
-  <si>
-    <t>DAMJAN BAUMAN  PREGLOV TRG 7  LJUBLJANA  SLOVENIA</t>
-  </si>
-  <si>
-    <t>SI56 0201 0279 7456 492</t>
-  </si>
-  <si>
-    <t>NLB Stanovanjski kredit</t>
-  </si>
-  <si>
-    <t>SI56 0201 0279 7460 469</t>
-  </si>
-  <si>
-    <t>SI56 0201 0275 3253 980,SI56 0201 0280 2149 934,SI56 0201 0279 7457 268,SI56 0201 0280 2149 643,SI56 0201 0280 2149 740,SI56 0203 3371 0566 805,SI56 0201 0279 7456 589,SI56 0201 0278 6196 344,SI56 0231 0156 0935 844,SI56 0201 0279 7456 492,</t>
-  </si>
-  <si>
-    <t>SI56 0201 0275 3253 980,SI56 0201 0275 3253 980,SI56 0201 0279 7457 268,SI56 0201 0280 2149 643,SI56 0201 0280 2149 740,SI56 0201 0279 7456 589,SI56 0201 0278 6196 344,SI56 0231 0156 0935 844,SI56 0203 3371 0566 805,SI56 0201 0280 2149 934,</t>
-  </si>
-  <si>
-    <t>020102797456395</t>
-  </si>
-  <si>
-    <t>DBP TST 01 11</t>
-  </si>
-  <si>
-    <t>dbptst01</t>
-  </si>
-  <si>
-    <t>https://test.dbp.nlb.si/web-retail/login</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>TST 012 DBP</t>
-  </si>
-  <si>
-    <t>TESTNA ULICA 1
-LJUBLJANA
-SLOVENIA</t>
-  </si>
-  <si>
-    <t>TST 012 DBP
-TESTNA ULICA 1
-LJUBLJANA
-SI</t>
-  </si>
-  <si>
-    <t>SI56 0214 0127 9870 766</t>
-  </si>
-  <si>
-    <t>Account type: Current account
-Account owner: DBP TST 012
-Account number: SI56 0214 0127 9870 766
-BIC: LJBASI2X</t>
-  </si>
-  <si>
-    <t>DBP TST 012</t>
-  </si>
-  <si>
-    <t>LJBASI2X</t>
-  </si>
-  <si>
-    <t>5484 17** **** 0512</t>
-  </si>
-  <si>
-    <t>10/28</t>
-  </si>
-  <si>
-    <t>DBP TST ENA</t>
-  </si>
-  <si>
-    <t>SI56 0214 0127 9871 057</t>
-  </si>
-  <si>
-    <t>18. 10. 2023</t>
-  </si>
-  <si>
-    <t>TESTNA ULICA 1
-TESTOVO
-SLOVENIA</t>
-  </si>
-  <si>
-    <t>SI56 0216 5800 2430 097</t>
-  </si>
-  <si>
-    <t>20. 2. 2025</t>
-  </si>
-  <si>
-    <t>20. 2. 2026</t>
-  </si>
-  <si>
-    <t>NLB Naložbeni par</t>
-  </si>
-  <si>
-    <t>SI56 0214 0127 9870 863</t>
-  </si>
-  <si>
-    <t>18. 9. 2026</t>
-  </si>
-  <si>
-    <t>ENERGETIKA LJUBLJANA, D.O.O.
-VEROVŠKOVA ULICA 70
-LJUBLJANA
-SLOVENIA</t>
-  </si>
-  <si>
-    <t>TEST
-TEST
-SLOVENIA</t>
-  </si>
-  <si>
-    <t>TESTNAME
-TEST
-TEST
-SLOVENIA</t>
-  </si>
-  <si>
-    <t>TST 01</t>
-  </si>
-  <si>
-    <t>TESTNA ULICA</t>
-  </si>
-  <si>
-    <t>TESTNA ULICA 1</t>
-  </si>
-  <si>
-    <t>TESTOVO</t>
-  </si>
-  <si>
-    <t>TST 012 DBP
-TESTNA ULICA 1
-TESTOVO
-SI</t>
-  </si>
-  <si>
-    <t>Alenka SKOK</t>
-  </si>
-  <si>
-    <t>NLB Postopno varcevanje UROŠ GR HVASTIJA TST</t>
-  </si>
-  <si>
-    <t>UROŠ GR TST HVASTIJA</t>
-  </si>
-  <si>
-    <t>NLB Skladi - Visoka tehnologija delniški</t>
-  </si>
-  <si>
-    <t>NLB MasterCard klasicna kartica</t>
-  </si>
-  <si>
-    <t>5436 61** **** 5321</t>
-  </si>
-  <si>
-    <t>DAVID KASTNER</t>
-  </si>
-  <si>
-    <t>20th of month</t>
-  </si>
-  <si>
-    <t>28th of month</t>
-  </si>
-  <si>
-    <t>31. 3. 2027</t>
-  </si>
-  <si>
-    <t>ababantis</t>
-  </si>
-  <si>
-    <t>ŽENA TST ČUDNA</t>
-  </si>
-  <si>
-    <t>VRTNARIJA 2A
-VRHNIKA
-SLOVENIA</t>
-  </si>
-  <si>
-    <t>IRENA TST
-VRTNARIJA    2 A
-1360 VRHNIKA
-SI</t>
-  </si>
-  <si>
-    <t>SI56 0214 0127 9872 706</t>
-  </si>
-  <si>
-    <t>Account type: Current account
-Account owner: ČUDNA ŽENA TST
-Account number: SI56 0214 0127 9872 706
-BIC: LJBASI2X</t>
-  </si>
-  <si>
-    <t>ČUDNA ŽENA TST</t>
-  </si>
-  <si>
-    <t>NLB Osnovni paketni račun</t>
-  </si>
-  <si>
-    <t>SI56 0214 0128 0183 494</t>
-  </si>
-  <si>
-    <t>NLB Klasični račun UROŠ TST HVASTIJA</t>
-  </si>
-  <si>
-    <t>SI56 0214 0128 0184 173</t>
-  </si>
-  <si>
-    <t>15. 1. 2025</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +1594,7 @@
   <dimension ref="A1:ED7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="$A3:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -2828,1948 +2504,340 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" ht="57.6" spans="1:127">
-      <c r="A3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="CM3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="CN3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CO3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CP3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CQ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CR3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CS3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CU3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CW3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CX3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CZ3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DB3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DF3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DG3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DH3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DI3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DJ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DK3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="DN3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="DO3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="DP3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DT3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DV3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DW3" s="1" t="s">
-        <v>135</v>
-      </c>
+    <row r="3" spans="9:120">
+      <c r="I3" s="3"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="3"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="3"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="3"/>
+      <c r="DO3" s="3"/>
+      <c r="DP3" s="3"/>
     </row>
-    <row r="4" ht="57.6" spans="1:127">
-      <c r="A4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BU4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BY4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CM4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CN4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CO4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CQ4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CS4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="CT4" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="CU4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CW4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CX4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="CY4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CZ4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DB4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DF4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DG4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DH4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DI4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DJ4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DK4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DM4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="DN4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="DO4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="DP4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DT4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DW4" s="1" t="s">
-        <v>135</v>
-      </c>
+    <row r="4" spans="98:120">
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="3"/>
+      <c r="CZ4" s="1"/>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1"/>
+      <c r="DC4" s="1"/>
+      <c r="DD4" s="1"/>
+      <c r="DE4" s="1"/>
+      <c r="DF4" s="1"/>
+      <c r="DG4" s="1"/>
+      <c r="DH4" s="1"/>
+      <c r="DI4" s="1"/>
+      <c r="DJ4" s="1"/>
+      <c r="DK4" s="1"/>
+      <c r="DL4" s="1"/>
+      <c r="DM4" s="1"/>
+      <c r="DN4" s="3"/>
+      <c r="DO4" s="3"/>
+      <c r="DP4" s="3"/>
     </row>
-    <row r="5" ht="72" spans="1:134">
-      <c r="A5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1379</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1111</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1379</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD5" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CF5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="CI5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="CK5" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="CL5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="CM5" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CP5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CQ5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CR5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CS5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CT5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CU5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CW5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CX5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="CY5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CZ5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DB5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DF5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="DG5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="DH5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="DI5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="DJ5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DK5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DL5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DM5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="DN5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="DO5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="DP5" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DQ5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DR5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DS5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DT5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DU5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DV5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DW5" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="DX5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="DY5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="DZ5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="EA5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="EB5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="EC5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="ED5" s="1" t="s">
-        <v>201</v>
-      </c>
+    <row r="5" spans="5:127">
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="3"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="3"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="3"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="3"/>
+      <c r="DO5" s="3"/>
+      <c r="DP5" s="3"/>
+      <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
+      <c r="DS5" s="1"/>
+      <c r="DT5" s="1"/>
+      <c r="DU5" s="1"/>
+      <c r="DV5" s="1"/>
+      <c r="DW5" s="3"/>
     </row>
-    <row r="6" ht="57.6" spans="1:127">
-      <c r="A6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1379</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BU6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BW6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BX6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BY6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BZ6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CF6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CH6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CI6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CK6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CL6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CM6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CN6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CO6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CP6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CQ6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CR6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CS6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CT6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CU6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CV6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CW6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CX6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CY6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CZ6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DA6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="DB6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="DC6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DD6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DE6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DF6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DG6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DH6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DI6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DJ6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DK6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DL6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DM6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="DN6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DO6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DP6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DQ6" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="DR6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="DS6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="DT6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="DU6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="DV6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="DW6" s="1" t="s">
-        <v>135</v>
-      </c>
+    <row r="6" spans="82:82">
+      <c r="CD6" s="3"/>
     </row>
-    <row r="7" ht="72" spans="1:134">
-      <c r="A7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1379</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1111</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BS7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BU7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BW7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BX7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BY7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BZ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD7" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="CE7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CF7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CG7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CH7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CI7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CJ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CK7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CM7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CN7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CO7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CP7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CQ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CR7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CT7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CU7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CV7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CW7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CX7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CY7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CZ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DA7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DB7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DC7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DE7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DF7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="DG7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DH7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DI7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DJ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DK7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DL7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DM7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="DN7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DO7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DP7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DQ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DS7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DT7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DU7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DV7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DW7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DX7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DY7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EA7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EB7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="ED7" s="1" t="s">
-        <v>135</v>
-      </c>
+    <row r="7" spans="5:82">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="https://test.dbp.nlb.si/web-retail/login"/>
-    <hyperlink ref="E7" r:id="rId1" display="https://test.dbp.nlb.si/web-retail/login"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="CT4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>